--- a/NutritionalResearchTool/NutritionalResearchToolApplication/Resources/Templates/AnalysisReport.xlsx
+++ b/NutritionalResearchTool/NutritionalResearchToolApplication/Resources/Templates/AnalysisReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Lambo.LAMBON550\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\lambo\Documents\GitHubVisualStudio\nutritional_research\NutritionalResearchTool\NutritionalResearchToolApplication\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>营养评价报告</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -101,7 +97,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -182,6 +178,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -191,6 +188,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Protein</t>
@@ -200,6 +198,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -230,6 +229,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -251,6 +251,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -283,20 +284,6 @@
   <si>
     <t>铜（Cu）</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.9</t>
-    </r>
   </si>
   <si>
     <t>锰（Mn）</t>
@@ -347,18 +334,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="168" formatCode="0.0_);[Red]\(0.0\)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -374,11 +362,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -386,19 +376,29 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -456,21 +456,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -487,40 +485,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -529,25 +516,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -831,12 +845,14 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -855,60 +871,50 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="38"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>160.9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="52" t="e">
+        <f>10000*E3/(B3*B3 )</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6">
-        <f>10000*E3/(B3*B3 )</f>
-        <v>18.927096301452249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
-        <v>56.8</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -918,7 +924,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
@@ -931,11 +937,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -943,13 +949,13 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -957,13 +963,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>299.60000000000002</v>
-      </c>
-      <c r="C9" s="15"/>
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -971,13 +975,11 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="17">
-        <v>46.4</v>
-      </c>
-      <c r="C10" s="15"/>
+      <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -985,13 +987,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="17">
-        <v>31.6</v>
-      </c>
-      <c r="C11" s="15"/>
+      <c r="A11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -999,13 +999,11 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11">
-        <v>41.1</v>
-      </c>
-      <c r="C12" s="15"/>
+      <c r="A12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
@@ -1013,29 +1011,25 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="18">
-        <v>15</v>
-      </c>
-      <c r="C13" s="15"/>
+      <c r="A13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1.79</v>
-      </c>
-      <c r="C14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1043,13 +1037,11 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="11">
-        <v>305.39999999999998</v>
-      </c>
-      <c r="C15" s="15"/>
+      <c r="A15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
@@ -1057,13 +1049,11 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="22">
-        <v>402.5</v>
-      </c>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
@@ -1071,13 +1061,11 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="24">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15"/>
+      <c r="A17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
@@ -1085,13 +1073,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1">
-        <v>169.6</v>
-      </c>
-      <c r="C18" s="15"/>
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
@@ -1099,13 +1085,11 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="17">
-        <v>30.2</v>
-      </c>
-      <c r="C19" s="15"/>
+      <c r="A19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
@@ -1113,13 +1097,11 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="26">
-        <v>1598</v>
-      </c>
-      <c r="C20" s="27"/>
+      <c r="A20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
@@ -1137,549 +1119,454 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="C22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="E22" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="16" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="33">
-        <v>2170.8914192857137</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="40"/>
+      <c r="E23" s="28" t="e">
+        <f>100*B23/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="15"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="34">
-        <v>2100</v>
-      </c>
-      <c r="E23" s="35">
-        <f>100*B23/D23</f>
-        <v>103.37578187074827</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="17"/>
-      <c r="B24" s="33">
-        <v>9085.4791414285737</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="28" t="e">
+        <f t="shared" ref="E24:E47" si="0">100*B24/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="34">
-        <v>8790</v>
-      </c>
-      <c r="E24" s="35">
-        <f t="shared" ref="E24:E47" si="0">100*B24/D24</f>
-        <v>103.36153744514874</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="37" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="33">
-        <v>62.601134285714302</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="34">
-        <v>70</v>
-      </c>
-      <c r="E25" s="35">
-        <f t="shared" si="0"/>
-        <v>89.430191836734721</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="16" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="33">
-        <v>76.460169071428567</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="34">
+      <c r="B27" s="27"/>
+      <c r="C27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="35">
-        <f t="shared" si="0"/>
-        <v>136.53601619897958</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="38">
-        <v>308.12475428571435</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="34">
-        <v>300</v>
-      </c>
-      <c r="E27" s="35">
-        <f t="shared" si="0"/>
-        <v>102.70825142857144</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="38">
-        <v>14.966505000000003</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="34">
-        <v>25</v>
-      </c>
-      <c r="E28" s="35">
-        <f t="shared" si="0"/>
-        <v>59.86602000000002</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="16" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="38">
-        <v>613.74046430000021</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="34">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="35">
-        <f t="shared" si="0"/>
-        <v>61.374046430000021</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="38">
-        <v>989.4274249999994</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="34">
-        <v>720</v>
-      </c>
-      <c r="E30" s="35">
-        <f t="shared" si="0"/>
-        <v>137.42047569444435</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="38">
-        <v>2392.3102428642851</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="34">
-        <v>2000</v>
-      </c>
-      <c r="E31" s="35">
-        <f t="shared" si="0"/>
-        <v>119.61551214321426</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="38">
-        <v>508.77919107142861</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="34">
-        <v>1500</v>
-      </c>
-      <c r="E32" s="35">
-        <f t="shared" si="0"/>
-        <v>33.918612738095241</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="38">
-        <v>325.12865714999992</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="34">
-        <v>330</v>
-      </c>
-      <c r="E33" s="35">
-        <f t="shared" si="0"/>
-        <v>98.523835499999976</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="38">
-        <v>19.025831807142872</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="34">
-        <v>25</v>
-      </c>
-      <c r="E34" s="35">
-        <f t="shared" si="0"/>
-        <v>76.103327228571487</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="38">
-        <v>10.415535092857144</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="34">
-        <v>9.5</v>
-      </c>
-      <c r="E35" s="35">
-        <f t="shared" si="0"/>
-        <v>109.63721150375942</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="38">
-        <v>40.446264714285732</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="34">
-        <v>65</v>
-      </c>
-      <c r="E36" s="35">
-        <f t="shared" si="0"/>
-        <v>62.225022637362663</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="38">
-        <v>2.4572000928571427</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="35">
-        <f t="shared" si="0"/>
-        <v>273.02223253968253</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="38">
-        <v>6.0585533142857164</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="41">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E38" s="35">
-        <f t="shared" si="0"/>
-        <v>123.64394518950441</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="42">
-        <v>351.91</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="41">
-        <v>300</v>
-      </c>
-      <c r="E39" s="35">
-        <f t="shared" si="0"/>
-        <v>117.30333333333333</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="42">
-        <v>818.51</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="34">
-        <v>770</v>
-      </c>
-      <c r="E40" s="35">
-        <f t="shared" si="0"/>
-        <v>106.3</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="42">
-        <v>3893.23</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="38">
-        <v>172.74885714285713</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="16" t="s">
+      <c r="D44" s="40"/>
+      <c r="E44" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="38">
-        <v>154.238775</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="34">
-        <v>115</v>
-      </c>
-      <c r="E43" s="35">
-        <f t="shared" si="0"/>
-        <v>134.12067391304348</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="16" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="38">
-        <v>49.274921107142859</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="34">
-        <v>14</v>
-      </c>
-      <c r="E44" s="35">
-        <f t="shared" si="0"/>
-        <v>351.96372219387752</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="16" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="38">
-        <v>0.99148189285714339</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="41">
-        <v>1.4</v>
-      </c>
-      <c r="E45" s="35">
-        <f t="shared" si="0"/>
-        <v>70.82013520408168</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="38">
-        <v>1.4166131785714293</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="41">
-        <v>1.4</v>
-      </c>
-      <c r="E46" s="35">
-        <f t="shared" si="0"/>
-        <v>101.18665561224496</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="38">
-        <v>14.061343571428578</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="41">
-        <v>12</v>
-      </c>
-      <c r="E47" s="35">
-        <f t="shared" si="0"/>
-        <v>117.17786309523815</v>
+      <c r="B47" s="27"/>
+      <c r="C47" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
